--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heriotwatt-my.sharepoint.com/personal/dp50_hw_ac_uk/Documents/E&amp;E/Final Year/Embeded Software/B31DG-Lab2/B31DG-Lab2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:40000_{D592FA3B-FF01-4E60-AAFF-A27EE8030054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="227" documentId="10_ncr:40000_{D592FA3B-FF01-4E60-AAFF-A27EE8030054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{257A2DCC-75EF-4049-B2C6-F5DE6821DC10}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -104,10 +104,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,11 +420,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,16 +555,14 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
+      <c r="F9" s="1"/>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>2.1999999999999997</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J9">
         <f t="shared" si="1"/>
-        <v>1.8000000000000003</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
@@ -578,13 +575,16 @@
       <c r="D10" s="1">
         <v>1</v>
       </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
       <c r="I10">
         <f t="shared" si="0"/>
-        <v>0.28999999999999998</v>
+        <v>2.1999999999999997</v>
       </c>
       <c r="J10">
         <f t="shared" si="1"/>
-        <v>3.71</v>
+        <v>1.8000000000000003</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
@@ -597,16 +597,14 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
+      <c r="F11" s="1"/>
       <c r="I11">
         <f t="shared" si="0"/>
-        <v>2.1999999999999997</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J11">
         <f t="shared" si="1"/>
-        <v>1.8000000000000003</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
@@ -619,7 +617,8 @@
       <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="1"/>
+      <c r="F12">
         <v>1</v>
       </c>
       <c r="G12" s="1">
@@ -627,11 +626,11 @@
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
-        <v>3.355</v>
+        <v>2.2649999999999997</v>
       </c>
       <c r="J12">
         <f t="shared" si="1"/>
-        <v>0.64500000000000002</v>
+        <v>1.7350000000000003</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
@@ -644,16 +643,17 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1"/>
       <c r="I13">
         <f>(D13*$D$4)+(E13*$E$4)+(F13*$F$4)+(G13*$G$4)+(H13*$H$4)</f>
-        <v>2.1999999999999997</v>
+        <v>3.29</v>
       </c>
       <c r="J13">
         <f t="shared" si="1"/>
-        <v>1.8000000000000003</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
@@ -666,13 +666,16 @@
       <c r="D14" s="1">
         <v>1</v>
       </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
       <c r="I14">
         <f t="shared" si="0"/>
-        <v>0.28999999999999998</v>
+        <v>2.1999999999999997</v>
       </c>
       <c r="J14">
         <f t="shared" si="1"/>
-        <v>3.71</v>
+        <v>1.8000000000000003</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
@@ -775,16 +778,14 @@
       <c r="D19" s="1">
         <v>1</v>
       </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
+      <c r="F19" s="1"/>
       <c r="I19">
         <f t="shared" si="0"/>
-        <v>2.1999999999999997</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J19">
         <f t="shared" si="1"/>
-        <v>1.8000000000000003</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
@@ -797,13 +798,16 @@
       <c r="D20" s="1">
         <v>1</v>
       </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
       <c r="I20">
         <f t="shared" si="0"/>
-        <v>0.28999999999999998</v>
+        <v>2.1999999999999997</v>
       </c>
       <c r="J20">
         <f t="shared" si="1"/>
-        <v>3.71</v>
+        <v>1.8000000000000003</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
@@ -816,16 +820,14 @@
       <c r="D21" s="1">
         <v>1</v>
       </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
+      <c r="F21" s="1"/>
       <c r="I21">
         <f t="shared" si="0"/>
-        <v>2.1999999999999997</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J21">
         <f t="shared" si="1"/>
-        <v>1.8000000000000003</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
@@ -838,7 +840,8 @@
       <c r="D22" s="1">
         <v>1</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="1"/>
+      <c r="F22">
         <v>1</v>
       </c>
       <c r="G22" s="1">
@@ -846,11 +849,11 @@
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
-        <v>3.355</v>
+        <v>2.2649999999999997</v>
       </c>
       <c r="J22">
         <f t="shared" si="1"/>
-        <v>0.64500000000000002</v>
+        <v>1.7350000000000003</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
@@ -863,16 +866,17 @@
       <c r="D23" s="1">
         <v>1</v>
       </c>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1"/>
       <c r="I23">
         <f t="shared" si="0"/>
-        <v>2.1999999999999997</v>
+        <v>3.29</v>
       </c>
       <c r="J23">
         <f t="shared" si="1"/>
-        <v>1.8000000000000003</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
@@ -885,13 +889,16 @@
       <c r="D24" s="1">
         <v>1</v>
       </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
       <c r="I24">
         <f t="shared" si="0"/>
-        <v>0.28999999999999998</v>
+        <v>2.1999999999999997</v>
       </c>
       <c r="J24">
         <f t="shared" si="1"/>
-        <v>3.71</v>
+        <v>1.8000000000000003</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
@@ -994,16 +1001,14 @@
       <c r="D29" s="1">
         <v>1</v>
       </c>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
+      <c r="F29" s="1"/>
       <c r="I29">
         <f t="shared" si="0"/>
-        <v>2.1999999999999997</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J29">
         <f t="shared" si="1"/>
-        <v>1.8000000000000003</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
@@ -1016,13 +1021,16 @@
       <c r="D30" s="1">
         <v>1</v>
       </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
       <c r="I30">
         <f t="shared" si="0"/>
-        <v>0.28999999999999998</v>
+        <v>2.1999999999999997</v>
       </c>
       <c r="J30">
         <f t="shared" si="1"/>
-        <v>3.71</v>
+        <v>1.8000000000000003</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
@@ -1035,16 +1043,14 @@
       <c r="D31" s="1">
         <v>1</v>
       </c>
-      <c r="F31" s="1">
-        <v>1</v>
-      </c>
+      <c r="F31" s="1"/>
       <c r="I31">
         <f t="shared" si="0"/>
-        <v>2.1999999999999997</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J31">
         <f t="shared" si="1"/>
-        <v>1.8000000000000003</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
@@ -1057,7 +1063,8 @@
       <c r="D32" s="1">
         <v>1</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="1"/>
+      <c r="F32">
         <v>1</v>
       </c>
       <c r="G32" s="1">
@@ -1068,11 +1075,11 @@
       </c>
       <c r="I32">
         <f t="shared" si="0"/>
-        <v>3.4049999999999998</v>
+        <v>2.3149999999999995</v>
       </c>
       <c r="J32">
         <f t="shared" si="1"/>
-        <v>0.5950000000000002</v>
+        <v>1.6850000000000005</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
@@ -1085,16 +1092,17 @@
       <c r="D33" s="1">
         <v>1</v>
       </c>
-      <c r="F33" s="1">
-        <v>1</v>
-      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1"/>
       <c r="I33">
         <f t="shared" si="0"/>
-        <v>2.1999999999999997</v>
+        <v>3.29</v>
       </c>
       <c r="J33">
         <f t="shared" si="1"/>
-        <v>1.8000000000000003</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
@@ -1107,13 +1115,16 @@
       <c r="D34" s="1">
         <v>1</v>
       </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
       <c r="I34">
         <f t="shared" si="0"/>
-        <v>0.28999999999999998</v>
+        <v>2.1999999999999997</v>
       </c>
       <c r="J34">
         <f t="shared" si="1"/>
-        <v>3.71</v>
+        <v>1.8000000000000003</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
@@ -1216,16 +1227,14 @@
       <c r="D39" s="1">
         <v>1</v>
       </c>
-      <c r="F39" s="1">
-        <v>1</v>
-      </c>
+      <c r="F39" s="1"/>
       <c r="I39">
         <f t="shared" si="0"/>
-        <v>2.1999999999999997</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J39">
         <f t="shared" si="1"/>
-        <v>1.8000000000000003</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
@@ -1238,13 +1247,16 @@
       <c r="D40" s="1">
         <v>1</v>
       </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
       <c r="I40">
         <f t="shared" si="0"/>
-        <v>0.28999999999999998</v>
+        <v>2.1999999999999997</v>
       </c>
       <c r="J40">
         <f t="shared" si="1"/>
-        <v>3.71</v>
+        <v>1.8000000000000003</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
@@ -1257,16 +1269,14 @@
       <c r="D41" s="1">
         <v>1</v>
       </c>
-      <c r="F41" s="1">
-        <v>1</v>
-      </c>
+      <c r="F41" s="1"/>
       <c r="I41">
         <f t="shared" si="0"/>
-        <v>2.1999999999999997</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J41">
         <f t="shared" si="1"/>
-        <v>1.8000000000000003</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
@@ -1279,7 +1289,8 @@
       <c r="D42" s="1">
         <v>1</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="1"/>
+      <c r="F42">
         <v>1</v>
       </c>
       <c r="G42" s="1">
@@ -1287,11 +1298,11 @@
       </c>
       <c r="I42">
         <f t="shared" si="0"/>
-        <v>3.355</v>
+        <v>2.2649999999999997</v>
       </c>
       <c r="J42">
         <f t="shared" si="1"/>
-        <v>0.64500000000000002</v>
+        <v>1.7350000000000003</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.3">
@@ -1304,16 +1315,17 @@
       <c r="D43" s="1">
         <v>1</v>
       </c>
-      <c r="F43" s="1">
-        <v>1</v>
-      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1"/>
       <c r="I43">
         <f t="shared" si="0"/>
-        <v>2.1999999999999997</v>
+        <v>3.29</v>
       </c>
       <c r="J43">
         <f t="shared" si="1"/>
-        <v>1.8000000000000003</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
@@ -1326,13 +1338,16 @@
       <c r="D44" s="1">
         <v>1</v>
       </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
       <c r="I44">
         <f t="shared" si="0"/>
-        <v>0.28999999999999998</v>
+        <v>2.1999999999999997</v>
       </c>
       <c r="J44">
         <f t="shared" si="1"/>
-        <v>3.71</v>
+        <v>1.8000000000000003</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.3">
@@ -1435,16 +1450,14 @@
       <c r="D49" s="1">
         <v>1</v>
       </c>
-      <c r="F49" s="1">
-        <v>1</v>
-      </c>
+      <c r="F49" s="1"/>
       <c r="I49">
         <f t="shared" si="0"/>
-        <v>2.1999999999999997</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J49">
         <f t="shared" si="1"/>
-        <v>1.8000000000000003</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.3">
@@ -1457,13 +1470,16 @@
       <c r="D50" s="1">
         <v>1</v>
       </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
       <c r="I50">
         <f t="shared" si="0"/>
-        <v>0.28999999999999998</v>
+        <v>2.1999999999999997</v>
       </c>
       <c r="J50">
         <f t="shared" si="1"/>
-        <v>3.71</v>
+        <v>1.8000000000000003</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.3">
@@ -1476,16 +1492,14 @@
       <c r="D51" s="1">
         <v>1</v>
       </c>
-      <c r="F51" s="1">
-        <v>1</v>
-      </c>
+      <c r="F51" s="1"/>
       <c r="I51">
         <f t="shared" si="0"/>
-        <v>2.1999999999999997</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J51">
         <f t="shared" si="1"/>
-        <v>1.8000000000000003</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.3">
@@ -1498,7 +1512,8 @@
       <c r="D52" s="1">
         <v>1</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="1"/>
+      <c r="F52">
         <v>1</v>
       </c>
       <c r="G52" s="1">
@@ -1506,11 +1521,11 @@
       </c>
       <c r="I52">
         <f t="shared" si="0"/>
-        <v>3.355</v>
+        <v>2.2649999999999997</v>
       </c>
       <c r="J52">
         <f t="shared" si="1"/>
-        <v>0.64500000000000002</v>
+        <v>1.7350000000000003</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.3">
@@ -1523,16 +1538,17 @@
       <c r="D53" s="1">
         <v>1</v>
       </c>
-      <c r="F53" s="1">
-        <v>1</v>
-      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1"/>
       <c r="I53">
         <f t="shared" si="0"/>
-        <v>2.1999999999999997</v>
+        <v>3.29</v>
       </c>
       <c r="J53">
         <f t="shared" si="1"/>
-        <v>1.8000000000000003</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.3">
@@ -1545,13 +1561,16 @@
       <c r="D54" s="1">
         <v>1</v>
       </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
       <c r="I54">
         <f t="shared" si="0"/>
-        <v>0.28999999999999998</v>
+        <v>2.1999999999999997</v>
       </c>
       <c r="J54">
         <f t="shared" si="1"/>
-        <v>3.71</v>
+        <v>1.8000000000000003</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.3">
@@ -1626,7 +1645,6 @@
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D58" s="2"/>
       <c r="J58">
         <f>SUM(J7:J57)</f>
         <v>107.59499999999991</v>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heriotwatt-my.sharepoint.com/personal/dp50_hw_ac_uk/Documents/E&amp;E/Final Year/Embeded Software/B31DG-Lab2/B31DG-Lab2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="227" documentId="10_ncr:40000_{D592FA3B-FF01-4E60-AAFF-A27EE8030054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{257A2DCC-75EF-4049-B2C6-F5DE6821DC10}"/>
+  <xr:revisionPtr revIDLastSave="309" documentId="10_ncr:40000_{D592FA3B-FF01-4E60-AAFF-A27EE8030054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{695ED636-8303-4941-9692-BE868E799752}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,7 +111,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -122,6 +133,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -424,7 +439,7 @@
   <dimension ref="B2:J58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,10 +489,10 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>3.04</v>
       </c>
       <c r="F4">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="G4">
         <v>6.5000000000000002E-2</v>
@@ -504,10 +519,10 @@
       <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
       <c r="G7" s="1">
         <v>1</v>
       </c>
@@ -516,11 +531,11 @@
       </c>
       <c r="I7">
         <f>(D7*$D$4)+(E7*$E$4)+(F7*$F$4)+(G7*$G$4)+(H7*$H$4)</f>
-        <v>3.4049999999999998</v>
+        <v>2.4249999999999998</v>
       </c>
       <c r="J7">
         <f>4-I7</f>
-        <v>0.5950000000000002</v>
+        <v>1.5750000000000002</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
@@ -533,16 +548,16 @@
       <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="F8">
+      <c r="E8">
         <v>1</v>
       </c>
       <c r="I8">
         <f t="shared" ref="I8:I57" si="0">(D8*$D$4)+(E8*$E$4)+(F8*$F$4)+(G8*$G$4)+(H8*$H$4)</f>
-        <v>2.1999999999999997</v>
+        <v>3.33</v>
       </c>
       <c r="J8">
         <f t="shared" ref="J8:J57" si="1">4-I8</f>
-        <v>1.8000000000000003</v>
+        <v>0.66999999999999993</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
@@ -555,14 +570,16 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>0.28999999999999998</v>
+        <v>2.31</v>
       </c>
       <c r="J9">
         <f t="shared" si="1"/>
-        <v>3.71</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
@@ -575,16 +592,13 @@
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
       <c r="I10">
         <f t="shared" si="0"/>
-        <v>2.1999999999999997</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J10">
         <f t="shared" si="1"/>
-        <v>1.8000000000000003</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
@@ -597,14 +611,16 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
       <c r="I11">
         <f t="shared" si="0"/>
-        <v>0.28999999999999998</v>
+        <v>2.31</v>
       </c>
       <c r="J11">
         <f t="shared" si="1"/>
-        <v>3.71</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
@@ -617,8 +633,7 @@
       <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12">
+      <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="G12" s="1">
@@ -626,11 +641,11 @@
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
-        <v>2.2649999999999997</v>
+        <v>3.395</v>
       </c>
       <c r="J12">
         <f t="shared" si="1"/>
-        <v>1.7350000000000003</v>
+        <v>0.60499999999999998</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
@@ -643,17 +658,16 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
       <c r="I13">
         <f>(D13*$D$4)+(E13*$E$4)+(F13*$F$4)+(G13*$G$4)+(H13*$H$4)</f>
-        <v>3.29</v>
+        <v>2.31</v>
       </c>
       <c r="J13">
         <f t="shared" si="1"/>
-        <v>0.71</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
@@ -666,16 +680,13 @@
       <c r="D14" s="1">
         <v>1</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
       <c r="I14">
         <f t="shared" si="0"/>
-        <v>2.1999999999999997</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J14">
         <f t="shared" si="1"/>
-        <v>1.8000000000000003</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
@@ -688,14 +699,16 @@
       <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
       <c r="I15">
         <f t="shared" si="0"/>
-        <v>0.28999999999999998</v>
+        <v>2.31</v>
       </c>
       <c r="J15">
         <f t="shared" si="1"/>
-        <v>3.71</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
@@ -708,16 +721,13 @@
       <c r="D16" s="1">
         <v>1</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
       <c r="I16">
         <f t="shared" si="0"/>
-        <v>2.1999999999999997</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J16">
         <f t="shared" si="1"/>
-        <v>1.8000000000000003</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
@@ -730,20 +740,20 @@
       <c r="D17" s="1">
         <v>1</v>
       </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
       <c r="G17" s="1">
         <v>1</v>
       </c>
       <c r="I17">
         <f t="shared" si="0"/>
-        <v>3.355</v>
+        <v>2.375</v>
       </c>
       <c r="J17">
         <f t="shared" si="1"/>
-        <v>0.64500000000000002</v>
+        <v>1.625</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
@@ -756,16 +766,16 @@
       <c r="D18" s="1">
         <v>1</v>
       </c>
-      <c r="F18">
+      <c r="E18">
         <v>1</v>
       </c>
       <c r="I18">
         <f t="shared" si="0"/>
-        <v>2.1999999999999997</v>
+        <v>3.33</v>
       </c>
       <c r="J18">
         <f t="shared" si="1"/>
-        <v>1.8000000000000003</v>
+        <v>0.66999999999999993</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
@@ -778,14 +788,16 @@
       <c r="D19" s="1">
         <v>1</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
       <c r="I19">
         <f t="shared" si="0"/>
-        <v>0.28999999999999998</v>
+        <v>2.31</v>
       </c>
       <c r="J19">
         <f t="shared" si="1"/>
-        <v>3.71</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
@@ -798,16 +810,13 @@
       <c r="D20" s="1">
         <v>1</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
       <c r="I20">
         <f t="shared" si="0"/>
-        <v>2.1999999999999997</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J20">
         <f t="shared" si="1"/>
-        <v>1.8000000000000003</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
@@ -820,14 +829,16 @@
       <c r="D21" s="1">
         <v>1</v>
       </c>
-      <c r="F21" s="1"/>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
       <c r="I21">
         <f t="shared" si="0"/>
-        <v>0.28999999999999998</v>
+        <v>2.31</v>
       </c>
       <c r="J21">
         <f t="shared" si="1"/>
-        <v>3.71</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
@@ -840,8 +851,7 @@
       <c r="D22" s="1">
         <v>1</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22">
+      <c r="E22" s="1">
         <v>1</v>
       </c>
       <c r="G22" s="1">
@@ -849,11 +859,11 @@
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
-        <v>2.2649999999999997</v>
+        <v>3.395</v>
       </c>
       <c r="J22">
         <f t="shared" si="1"/>
-        <v>1.7350000000000003</v>
+        <v>0.60499999999999998</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
@@ -866,17 +876,16 @@
       <c r="D23" s="1">
         <v>1</v>
       </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1"/>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
       <c r="I23">
         <f t="shared" si="0"/>
-        <v>3.29</v>
+        <v>2.31</v>
       </c>
       <c r="J23">
         <f t="shared" si="1"/>
-        <v>0.71</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
@@ -889,16 +898,13 @@
       <c r="D24" s="1">
         <v>1</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
       <c r="I24">
         <f t="shared" si="0"/>
-        <v>2.1999999999999997</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J24">
         <f t="shared" si="1"/>
-        <v>1.8000000000000003</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
@@ -911,14 +917,16 @@
       <c r="D25" s="1">
         <v>1</v>
       </c>
-      <c r="F25" s="1"/>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
       <c r="I25">
         <f t="shared" si="0"/>
-        <v>0.28999999999999998</v>
+        <v>2.31</v>
       </c>
       <c r="J25">
         <f t="shared" si="1"/>
-        <v>3.71</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
@@ -931,16 +939,13 @@
       <c r="D26" s="1">
         <v>1</v>
       </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
       <c r="I26">
         <f t="shared" si="0"/>
-        <v>2.1999999999999997</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J26">
         <f t="shared" si="1"/>
-        <v>1.8000000000000003</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
@@ -953,20 +958,20 @@
       <c r="D27" s="1">
         <v>1</v>
       </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
       <c r="G27" s="1">
         <v>1</v>
       </c>
       <c r="I27">
         <f t="shared" si="0"/>
-        <v>3.355</v>
+        <v>2.375</v>
       </c>
       <c r="J27">
         <f t="shared" si="1"/>
-        <v>0.64500000000000002</v>
+        <v>1.625</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
@@ -979,16 +984,16 @@
       <c r="D28" s="1">
         <v>1</v>
       </c>
-      <c r="F28">
+      <c r="E28">
         <v>1</v>
       </c>
       <c r="I28">
         <f t="shared" si="0"/>
-        <v>2.1999999999999997</v>
+        <v>3.33</v>
       </c>
       <c r="J28">
         <f t="shared" si="1"/>
-        <v>1.8000000000000003</v>
+        <v>0.66999999999999993</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
@@ -1001,14 +1006,16 @@
       <c r="D29" s="1">
         <v>1</v>
       </c>
-      <c r="F29" s="1"/>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
       <c r="I29">
         <f t="shared" si="0"/>
-        <v>0.28999999999999998</v>
+        <v>2.31</v>
       </c>
       <c r="J29">
         <f t="shared" si="1"/>
-        <v>3.71</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
@@ -1021,16 +1028,13 @@
       <c r="D30" s="1">
         <v>1</v>
       </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
       <c r="I30">
         <f t="shared" si="0"/>
-        <v>2.1999999999999997</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J30">
         <f t="shared" si="1"/>
-        <v>1.8000000000000003</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
@@ -1043,14 +1047,16 @@
       <c r="D31" s="1">
         <v>1</v>
       </c>
-      <c r="F31" s="1"/>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
       <c r="I31">
         <f t="shared" si="0"/>
-        <v>0.28999999999999998</v>
+        <v>2.31</v>
       </c>
       <c r="J31">
         <f t="shared" si="1"/>
-        <v>3.71</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
@@ -1063,8 +1069,7 @@
       <c r="D32" s="1">
         <v>1</v>
       </c>
-      <c r="E32" s="1"/>
-      <c r="F32">
+      <c r="E32" s="1">
         <v>1</v>
       </c>
       <c r="G32" s="1">
@@ -1075,11 +1080,11 @@
       </c>
       <c r="I32">
         <f t="shared" si="0"/>
-        <v>2.3149999999999995</v>
+        <v>3.4449999999999998</v>
       </c>
       <c r="J32">
         <f t="shared" si="1"/>
-        <v>1.6850000000000005</v>
+        <v>0.55500000000000016</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
@@ -1092,17 +1097,16 @@
       <c r="D33" s="1">
         <v>1</v>
       </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1"/>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
       <c r="I33">
         <f t="shared" si="0"/>
-        <v>3.29</v>
+        <v>2.31</v>
       </c>
       <c r="J33">
         <f t="shared" si="1"/>
-        <v>0.71</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
@@ -1115,16 +1119,13 @@
       <c r="D34" s="1">
         <v>1</v>
       </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
       <c r="I34">
         <f t="shared" si="0"/>
-        <v>2.1999999999999997</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J34">
         <f t="shared" si="1"/>
-        <v>1.8000000000000003</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
@@ -1137,14 +1138,16 @@
       <c r="D35" s="1">
         <v>1</v>
       </c>
-      <c r="F35" s="1"/>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
       <c r="I35">
         <f t="shared" si="0"/>
-        <v>0.28999999999999998</v>
+        <v>2.31</v>
       </c>
       <c r="J35">
         <f t="shared" si="1"/>
-        <v>3.71</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
@@ -1157,16 +1160,13 @@
       <c r="D36" s="1">
         <v>1</v>
       </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
       <c r="I36">
         <f t="shared" si="0"/>
-        <v>2.1999999999999997</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J36">
         <f t="shared" si="1"/>
-        <v>1.8000000000000003</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
@@ -1179,20 +1179,20 @@
       <c r="D37" s="1">
         <v>1</v>
       </c>
-      <c r="E37" s="1">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
       <c r="G37" s="1">
         <v>1</v>
       </c>
       <c r="I37">
         <f t="shared" si="0"/>
-        <v>3.355</v>
+        <v>2.375</v>
       </c>
       <c r="J37">
         <f t="shared" si="1"/>
-        <v>0.64500000000000002</v>
+        <v>1.625</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
@@ -1205,16 +1205,16 @@
       <c r="D38" s="1">
         <v>1</v>
       </c>
-      <c r="F38">
+      <c r="E38">
         <v>1</v>
       </c>
       <c r="I38">
         <f t="shared" si="0"/>
-        <v>2.1999999999999997</v>
+        <v>3.33</v>
       </c>
       <c r="J38">
         <f t="shared" si="1"/>
-        <v>1.8000000000000003</v>
+        <v>0.66999999999999993</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
@@ -1227,14 +1227,16 @@
       <c r="D39" s="1">
         <v>1</v>
       </c>
-      <c r="F39" s="1"/>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
       <c r="I39">
         <f t="shared" si="0"/>
-        <v>0.28999999999999998</v>
+        <v>2.31</v>
       </c>
       <c r="J39">
         <f t="shared" si="1"/>
-        <v>3.71</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
@@ -1247,16 +1249,13 @@
       <c r="D40" s="1">
         <v>1</v>
       </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
       <c r="I40">
         <f t="shared" si="0"/>
-        <v>2.1999999999999997</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J40">
         <f t="shared" si="1"/>
-        <v>1.8000000000000003</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
@@ -1269,14 +1268,16 @@
       <c r="D41" s="1">
         <v>1</v>
       </c>
-      <c r="F41" s="1"/>
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
       <c r="I41">
         <f t="shared" si="0"/>
-        <v>0.28999999999999998</v>
+        <v>2.31</v>
       </c>
       <c r="J41">
         <f t="shared" si="1"/>
-        <v>3.71</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
@@ -1289,8 +1290,7 @@
       <c r="D42" s="1">
         <v>1</v>
       </c>
-      <c r="E42" s="1"/>
-      <c r="F42">
+      <c r="E42" s="1">
         <v>1</v>
       </c>
       <c r="G42" s="1">
@@ -1298,11 +1298,11 @@
       </c>
       <c r="I42">
         <f t="shared" si="0"/>
-        <v>2.2649999999999997</v>
+        <v>3.395</v>
       </c>
       <c r="J42">
         <f t="shared" si="1"/>
-        <v>1.7350000000000003</v>
+        <v>0.60499999999999998</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.3">
@@ -1315,17 +1315,16 @@
       <c r="D43" s="1">
         <v>1</v>
       </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43" s="1"/>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
       <c r="I43">
         <f t="shared" si="0"/>
-        <v>3.29</v>
+        <v>2.31</v>
       </c>
       <c r="J43">
         <f t="shared" si="1"/>
-        <v>0.71</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
@@ -1338,16 +1337,13 @@
       <c r="D44" s="1">
         <v>1</v>
       </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
       <c r="I44">
         <f t="shared" si="0"/>
-        <v>2.1999999999999997</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J44">
         <f t="shared" si="1"/>
-        <v>1.8000000000000003</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.3">
@@ -1360,14 +1356,16 @@
       <c r="D45" s="1">
         <v>1</v>
       </c>
-      <c r="F45" s="1"/>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
       <c r="I45">
         <f t="shared" si="0"/>
-        <v>0.28999999999999998</v>
+        <v>2.31</v>
       </c>
       <c r="J45">
         <f t="shared" si="1"/>
-        <v>3.71</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.3">
@@ -1380,16 +1378,13 @@
       <c r="D46" s="1">
         <v>1</v>
       </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
       <c r="I46">
         <f t="shared" si="0"/>
-        <v>2.1999999999999997</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J46">
         <f t="shared" si="1"/>
-        <v>1.8000000000000003</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
@@ -1402,20 +1397,20 @@
       <c r="D47" s="1">
         <v>1</v>
       </c>
-      <c r="E47" s="1">
-        <v>1</v>
-      </c>
-      <c r="F47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1">
+        <v>1</v>
+      </c>
       <c r="G47" s="1">
         <v>1</v>
       </c>
       <c r="I47">
         <f t="shared" si="0"/>
-        <v>3.355</v>
+        <v>2.375</v>
       </c>
       <c r="J47">
         <f t="shared" si="1"/>
-        <v>0.64500000000000002</v>
+        <v>1.625</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
@@ -1428,16 +1423,16 @@
       <c r="D48" s="1">
         <v>1</v>
       </c>
-      <c r="F48">
+      <c r="E48">
         <v>1</v>
       </c>
       <c r="I48">
         <f t="shared" si="0"/>
-        <v>2.1999999999999997</v>
+        <v>3.33</v>
       </c>
       <c r="J48">
         <f t="shared" si="1"/>
-        <v>1.8000000000000003</v>
+        <v>0.66999999999999993</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.3">
@@ -1450,14 +1445,16 @@
       <c r="D49" s="1">
         <v>1</v>
       </c>
-      <c r="F49" s="1"/>
+      <c r="F49" s="1">
+        <v>1</v>
+      </c>
       <c r="I49">
         <f t="shared" si="0"/>
-        <v>0.28999999999999998</v>
+        <v>2.31</v>
       </c>
       <c r="J49">
         <f t="shared" si="1"/>
-        <v>3.71</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.3">
@@ -1470,16 +1467,13 @@
       <c r="D50" s="1">
         <v>1</v>
       </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
       <c r="I50">
         <f t="shared" si="0"/>
-        <v>2.1999999999999997</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J50">
         <f t="shared" si="1"/>
-        <v>1.8000000000000003</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.3">
@@ -1492,14 +1486,16 @@
       <c r="D51" s="1">
         <v>1</v>
       </c>
-      <c r="F51" s="1"/>
+      <c r="F51" s="1">
+        <v>1</v>
+      </c>
       <c r="I51">
         <f t="shared" si="0"/>
-        <v>0.28999999999999998</v>
+        <v>2.31</v>
       </c>
       <c r="J51">
         <f t="shared" si="1"/>
-        <v>3.71</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.3">
@@ -1512,8 +1508,7 @@
       <c r="D52" s="1">
         <v>1</v>
       </c>
-      <c r="E52" s="1"/>
-      <c r="F52">
+      <c r="E52" s="1">
         <v>1</v>
       </c>
       <c r="G52" s="1">
@@ -1521,11 +1516,11 @@
       </c>
       <c r="I52">
         <f t="shared" si="0"/>
-        <v>2.2649999999999997</v>
+        <v>3.395</v>
       </c>
       <c r="J52">
         <f t="shared" si="1"/>
-        <v>1.7350000000000003</v>
+        <v>0.60499999999999998</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.3">
@@ -1538,17 +1533,16 @@
       <c r="D53" s="1">
         <v>1</v>
       </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53" s="1"/>
+      <c r="F53" s="1">
+        <v>1</v>
+      </c>
       <c r="I53">
         <f t="shared" si="0"/>
-        <v>3.29</v>
+        <v>2.31</v>
       </c>
       <c r="J53">
         <f t="shared" si="1"/>
-        <v>0.71</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.3">
@@ -1561,16 +1555,13 @@
       <c r="D54" s="1">
         <v>1</v>
       </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
       <c r="I54">
         <f t="shared" si="0"/>
-        <v>2.1999999999999997</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J54">
         <f t="shared" si="1"/>
-        <v>1.8000000000000003</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.3">
@@ -1583,14 +1574,16 @@
       <c r="D55" s="1">
         <v>1</v>
       </c>
-      <c r="F55" s="1"/>
+      <c r="F55" s="1">
+        <v>1</v>
+      </c>
       <c r="I55">
         <f t="shared" si="0"/>
-        <v>0.28999999999999998</v>
+        <v>2.31</v>
       </c>
       <c r="J55">
         <f t="shared" si="1"/>
-        <v>3.71</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.3">
@@ -1603,16 +1596,13 @@
       <c r="D56" s="1">
         <v>1</v>
       </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
       <c r="I56">
         <f t="shared" si="0"/>
-        <v>2.1999999999999997</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J56">
         <f t="shared" si="1"/>
-        <v>1.8000000000000003</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.3">
@@ -1625,10 +1615,10 @@
       <c r="D57" s="1">
         <v>1</v>
       </c>
-      <c r="E57" s="1">
-        <v>1</v>
-      </c>
-      <c r="F57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1">
+        <v>1</v>
+      </c>
       <c r="G57" s="1">
         <v>1</v>
       </c>
@@ -1637,20 +1627,25 @@
       </c>
       <c r="I57">
         <f t="shared" si="0"/>
-        <v>3.4049999999999998</v>
+        <v>2.4249999999999998</v>
       </c>
       <c r="J57">
         <f t="shared" si="1"/>
-        <v>0.5950000000000002</v>
+        <v>1.5750000000000002</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J58">
         <f>SUM(J7:J57)</f>
-        <v>107.59499999999991</v>
+        <v>105.42499999999995</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heriotwatt-my.sharepoint.com/personal/dp50_hw_ac_uk/Documents/E&amp;E/Final Year/Embeded Software/B31DG-Lab2/B31DG-Lab2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="309" documentId="10_ncr:40000_{D592FA3B-FF01-4E60-AAFF-A27EE8030054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{695ED636-8303-4941-9692-BE868E799752}"/>
+  <xr:revisionPtr revIDLastSave="325" documentId="10_ncr:40000_{D592FA3B-FF01-4E60-AAFF-A27EE8030054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CC92B1D-64BE-4B5D-A2D9-DC1B8CA5DDA4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Pi</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>frame#</t>
+  </si>
+  <si>
+    <t>Slack</t>
+  </si>
+  <si>
+    <t>Frame execution time</t>
   </si>
 </sst>
 </file>
@@ -92,7 +98,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -100,13 +106,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -133,10 +158,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,13 +457,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B2:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="18.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
@@ -501,15 +528,21 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>0</v>
       </c>
@@ -538,7 +571,7 @@
         <v>1.5750000000000002</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>1</v>
       </c>
@@ -548,9 +581,12 @@
       <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
       <c r="I8">
         <f t="shared" ref="I8:I57" si="0">(D8*$D$4)+(E8*$E$4)+(F8*$F$4)+(G8*$G$4)+(H8*$H$4)</f>
         <v>3.33</v>
@@ -560,7 +596,7 @@
         <v>0.66999999999999993</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>2</v>
       </c>
@@ -570,9 +606,12 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
+      <c r="E9" s="2"/>
       <c r="F9" s="1">
         <v>1</v>
       </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
       <c r="I9">
         <f t="shared" si="0"/>
         <v>2.31</v>
@@ -582,7 +621,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>3</v>
       </c>
@@ -592,6 +631,10 @@
       <c r="D10" s="1">
         <v>1</v>
       </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
       <c r="I10">
         <f t="shared" si="0"/>
         <v>0.28999999999999998</v>
@@ -601,7 +644,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>4</v>
       </c>
@@ -611,9 +654,12 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="1">
         <v>1</v>
       </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
       <c r="I11">
         <f t="shared" si="0"/>
         <v>2.31</v>
@@ -623,7 +669,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>5</v>
       </c>
@@ -636,9 +682,11 @@
       <c r="E12" s="1">
         <v>1</v>
       </c>
+      <c r="F12" s="2"/>
       <c r="G12" s="1">
         <v>1</v>
       </c>
+      <c r="H12" s="2"/>
       <c r="I12">
         <f t="shared" si="0"/>
         <v>3.395</v>
@@ -648,7 +696,7 @@
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>6</v>
       </c>
@@ -658,9 +706,12 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
+      <c r="E13" s="2"/>
       <c r="F13" s="1">
         <v>1</v>
       </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
       <c r="I13">
         <f>(D13*$D$4)+(E13*$E$4)+(F13*$F$4)+(G13*$G$4)+(H13*$H$4)</f>
         <v>2.31</v>
@@ -670,7 +721,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>7</v>
       </c>
@@ -680,6 +731,10 @@
       <c r="D14" s="1">
         <v>1</v>
       </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
       <c r="I14">
         <f t="shared" si="0"/>
         <v>0.28999999999999998</v>
@@ -689,7 +744,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>8</v>
       </c>
@@ -699,9 +754,12 @@
       <c r="D15" s="1">
         <v>1</v>
       </c>
+      <c r="E15" s="2"/>
       <c r="F15" s="1">
         <v>1</v>
       </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
       <c r="I15">
         <f t="shared" si="0"/>
         <v>2.31</v>
@@ -711,7 +769,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>9</v>
       </c>
@@ -721,6 +779,10 @@
       <c r="D16" s="1">
         <v>1</v>
       </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
       <c r="I16">
         <f t="shared" si="0"/>
         <v>0.28999999999999998</v>
@@ -730,7 +792,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>10</v>
       </c>
@@ -747,6 +809,7 @@
       <c r="G17" s="1">
         <v>1</v>
       </c>
+      <c r="H17" s="2"/>
       <c r="I17">
         <f t="shared" si="0"/>
         <v>2.375</v>
@@ -756,7 +819,7 @@
         <v>1.625</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>11</v>
       </c>
@@ -766,9 +829,12 @@
       <c r="D18" s="1">
         <v>1</v>
       </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
       <c r="I18">
         <f t="shared" si="0"/>
         <v>3.33</v>
@@ -778,7 +844,7 @@
         <v>0.66999999999999993</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>12</v>
       </c>
@@ -788,9 +854,12 @@
       <c r="D19" s="1">
         <v>1</v>
       </c>
+      <c r="E19" s="2"/>
       <c r="F19" s="1">
         <v>1</v>
       </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
       <c r="I19">
         <f t="shared" si="0"/>
         <v>2.31</v>
@@ -800,7 +869,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>13</v>
       </c>
@@ -810,6 +879,10 @@
       <c r="D20" s="1">
         <v>1</v>
       </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
       <c r="I20">
         <f t="shared" si="0"/>
         <v>0.28999999999999998</v>
@@ -819,7 +892,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>14</v>
       </c>
@@ -829,9 +902,12 @@
       <c r="D21" s="1">
         <v>1</v>
       </c>
+      <c r="E21" s="2"/>
       <c r="F21" s="1">
         <v>1</v>
       </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
       <c r="I21">
         <f t="shared" si="0"/>
         <v>2.31</v>
@@ -841,7 +917,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>15</v>
       </c>
@@ -854,9 +930,11 @@
       <c r="E22" s="1">
         <v>1</v>
       </c>
+      <c r="F22" s="2"/>
       <c r="G22" s="1">
         <v>1</v>
       </c>
+      <c r="H22" s="2"/>
       <c r="I22">
         <f t="shared" si="0"/>
         <v>3.395</v>
@@ -866,7 +944,7 @@
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>16</v>
       </c>
@@ -876,9 +954,12 @@
       <c r="D23" s="1">
         <v>1</v>
       </c>
+      <c r="E23" s="2"/>
       <c r="F23" s="1">
         <v>1</v>
       </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
       <c r="I23">
         <f t="shared" si="0"/>
         <v>2.31</v>
@@ -888,7 +969,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>17</v>
       </c>
@@ -898,6 +979,10 @@
       <c r="D24" s="1">
         <v>1</v>
       </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
       <c r="I24">
         <f t="shared" si="0"/>
         <v>0.28999999999999998</v>
@@ -907,7 +992,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>18</v>
       </c>
@@ -917,9 +1002,12 @@
       <c r="D25" s="1">
         <v>1</v>
       </c>
+      <c r="E25" s="2"/>
       <c r="F25" s="1">
         <v>1</v>
       </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
       <c r="I25">
         <f t="shared" si="0"/>
         <v>2.31</v>
@@ -929,7 +1017,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>19</v>
       </c>
@@ -939,6 +1027,10 @@
       <c r="D26" s="1">
         <v>1</v>
       </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
       <c r="I26">
         <f t="shared" si="0"/>
         <v>0.28999999999999998</v>
@@ -948,7 +1040,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>20</v>
       </c>
@@ -965,6 +1057,7 @@
       <c r="G27" s="1">
         <v>1</v>
       </c>
+      <c r="H27" s="2"/>
       <c r="I27">
         <f t="shared" si="0"/>
         <v>2.375</v>
@@ -974,7 +1067,7 @@
         <v>1.625</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>21</v>
       </c>
@@ -984,9 +1077,12 @@
       <c r="D28" s="1">
         <v>1</v>
       </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
       <c r="I28">
         <f t="shared" si="0"/>
         <v>3.33</v>
@@ -996,7 +1092,7 @@
         <v>0.66999999999999993</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>22</v>
       </c>
@@ -1006,9 +1102,12 @@
       <c r="D29" s="1">
         <v>1</v>
       </c>
+      <c r="E29" s="2"/>
       <c r="F29" s="1">
         <v>1</v>
       </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
       <c r="I29">
         <f t="shared" si="0"/>
         <v>2.31</v>
@@ -1018,7 +1117,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>23</v>
       </c>
@@ -1028,6 +1127,10 @@
       <c r="D30" s="1">
         <v>1</v>
       </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
       <c r="I30">
         <f t="shared" si="0"/>
         <v>0.28999999999999998</v>
@@ -1037,7 +1140,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>24</v>
       </c>
@@ -1047,9 +1150,12 @@
       <c r="D31" s="1">
         <v>1</v>
       </c>
+      <c r="E31" s="2"/>
       <c r="F31" s="1">
         <v>1</v>
       </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
       <c r="I31">
         <f t="shared" si="0"/>
         <v>2.31</v>
@@ -1059,7 +1165,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>25</v>
       </c>
@@ -1072,6 +1178,7 @@
       <c r="E32" s="1">
         <v>1</v>
       </c>
+      <c r="F32" s="2"/>
       <c r="G32" s="1">
         <v>1</v>
       </c>
@@ -1087,7 +1194,7 @@
         <v>0.55500000000000016</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>26</v>
       </c>
@@ -1097,9 +1204,12 @@
       <c r="D33" s="1">
         <v>1</v>
       </c>
+      <c r="E33" s="2"/>
       <c r="F33" s="1">
         <v>1</v>
       </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
       <c r="I33">
         <f t="shared" si="0"/>
         <v>2.31</v>
@@ -1109,7 +1219,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>27</v>
       </c>
@@ -1119,6 +1229,10 @@
       <c r="D34" s="1">
         <v>1</v>
       </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
       <c r="I34">
         <f t="shared" si="0"/>
         <v>0.28999999999999998</v>
@@ -1128,7 +1242,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>28</v>
       </c>
@@ -1138,9 +1252,12 @@
       <c r="D35" s="1">
         <v>1</v>
       </c>
+      <c r="E35" s="2"/>
       <c r="F35" s="1">
         <v>1</v>
       </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
       <c r="I35">
         <f t="shared" si="0"/>
         <v>2.31</v>
@@ -1150,7 +1267,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>29</v>
       </c>
@@ -1160,6 +1277,10 @@
       <c r="D36" s="1">
         <v>1</v>
       </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
       <c r="I36">
         <f t="shared" si="0"/>
         <v>0.28999999999999998</v>
@@ -1169,7 +1290,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>30</v>
       </c>
@@ -1186,6 +1307,7 @@
       <c r="G37" s="1">
         <v>1</v>
       </c>
+      <c r="H37" s="2"/>
       <c r="I37">
         <f t="shared" si="0"/>
         <v>2.375</v>
@@ -1195,7 +1317,7 @@
         <v>1.625</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>31</v>
       </c>
@@ -1205,9 +1327,12 @@
       <c r="D38" s="1">
         <v>1</v>
       </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
+      <c r="E38" s="2">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
       <c r="I38">
         <f t="shared" si="0"/>
         <v>3.33</v>
@@ -1217,7 +1342,7 @@
         <v>0.66999999999999993</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>32</v>
       </c>
@@ -1227,9 +1352,12 @@
       <c r="D39" s="1">
         <v>1</v>
       </c>
+      <c r="E39" s="2"/>
       <c r="F39" s="1">
         <v>1</v>
       </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
       <c r="I39">
         <f t="shared" si="0"/>
         <v>2.31</v>
@@ -1239,7 +1367,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>33</v>
       </c>
@@ -1249,6 +1377,10 @@
       <c r="D40" s="1">
         <v>1</v>
       </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
       <c r="I40">
         <f t="shared" si="0"/>
         <v>0.28999999999999998</v>
@@ -1258,7 +1390,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>34</v>
       </c>
@@ -1268,9 +1400,12 @@
       <c r="D41" s="1">
         <v>1</v>
       </c>
+      <c r="E41" s="2"/>
       <c r="F41" s="1">
         <v>1</v>
       </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
       <c r="I41">
         <f t="shared" si="0"/>
         <v>2.31</v>
@@ -1280,7 +1415,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>35</v>
       </c>
@@ -1293,9 +1428,11 @@
       <c r="E42" s="1">
         <v>1</v>
       </c>
+      <c r="F42" s="2"/>
       <c r="G42" s="1">
         <v>1</v>
       </c>
+      <c r="H42" s="2"/>
       <c r="I42">
         <f t="shared" si="0"/>
         <v>3.395</v>
@@ -1305,7 +1442,7 @@
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>36</v>
       </c>
@@ -1315,9 +1452,12 @@
       <c r="D43" s="1">
         <v>1</v>
       </c>
+      <c r="E43" s="2"/>
       <c r="F43" s="1">
         <v>1</v>
       </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
       <c r="I43">
         <f t="shared" si="0"/>
         <v>2.31</v>
@@ -1327,7 +1467,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>37</v>
       </c>
@@ -1337,6 +1477,10 @@
       <c r="D44" s="1">
         <v>1</v>
       </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
       <c r="I44">
         <f t="shared" si="0"/>
         <v>0.28999999999999998</v>
@@ -1346,7 +1490,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>38</v>
       </c>
@@ -1356,9 +1500,12 @@
       <c r="D45" s="1">
         <v>1</v>
       </c>
+      <c r="E45" s="2"/>
       <c r="F45" s="1">
         <v>1</v>
       </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
       <c r="I45">
         <f t="shared" si="0"/>
         <v>2.31</v>
@@ -1368,7 +1515,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>39</v>
       </c>
@@ -1378,6 +1525,10 @@
       <c r="D46" s="1">
         <v>1</v>
       </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
       <c r="I46">
         <f t="shared" si="0"/>
         <v>0.28999999999999998</v>
@@ -1387,7 +1538,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>40</v>
       </c>
@@ -1404,6 +1555,7 @@
       <c r="G47" s="1">
         <v>1</v>
       </c>
+      <c r="H47" s="2"/>
       <c r="I47">
         <f t="shared" si="0"/>
         <v>2.375</v>
@@ -1413,7 +1565,7 @@
         <v>1.625</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>41</v>
       </c>
@@ -1423,9 +1575,12 @@
       <c r="D48" s="1">
         <v>1</v>
       </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
+      <c r="E48" s="2">
+        <v>1</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
       <c r="I48">
         <f t="shared" si="0"/>
         <v>3.33</v>
@@ -1435,7 +1590,7 @@
         <v>0.66999999999999993</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>42</v>
       </c>
@@ -1445,9 +1600,12 @@
       <c r="D49" s="1">
         <v>1</v>
       </c>
+      <c r="E49" s="2"/>
       <c r="F49" s="1">
         <v>1</v>
       </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
       <c r="I49">
         <f t="shared" si="0"/>
         <v>2.31</v>
@@ -1457,7 +1615,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>43</v>
       </c>
@@ -1467,6 +1625,10 @@
       <c r="D50" s="1">
         <v>1</v>
       </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
       <c r="I50">
         <f t="shared" si="0"/>
         <v>0.28999999999999998</v>
@@ -1476,7 +1638,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>44</v>
       </c>
@@ -1486,9 +1648,12 @@
       <c r="D51" s="1">
         <v>1</v>
       </c>
+      <c r="E51" s="2"/>
       <c r="F51" s="1">
         <v>1</v>
       </c>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
       <c r="I51">
         <f t="shared" si="0"/>
         <v>2.31</v>
@@ -1498,7 +1663,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52">
         <v>45</v>
       </c>
@@ -1511,9 +1676,11 @@
       <c r="E52" s="1">
         <v>1</v>
       </c>
+      <c r="F52" s="2"/>
       <c r="G52" s="1">
         <v>1</v>
       </c>
+      <c r="H52" s="2"/>
       <c r="I52">
         <f t="shared" si="0"/>
         <v>3.395</v>
@@ -1523,7 +1690,7 @@
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B53">
         <v>46</v>
       </c>
@@ -1533,9 +1700,12 @@
       <c r="D53" s="1">
         <v>1</v>
       </c>
+      <c r="E53" s="2"/>
       <c r="F53" s="1">
         <v>1</v>
       </c>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
       <c r="I53">
         <f t="shared" si="0"/>
         <v>2.31</v>
@@ -1545,7 +1715,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54">
         <v>47</v>
       </c>
@@ -1555,6 +1725,10 @@
       <c r="D54" s="1">
         <v>1</v>
       </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
       <c r="I54">
         <f t="shared" si="0"/>
         <v>0.28999999999999998</v>
@@ -1564,7 +1738,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B55">
         <v>48</v>
       </c>
@@ -1574,9 +1748,12 @@
       <c r="D55" s="1">
         <v>1</v>
       </c>
+      <c r="E55" s="2"/>
       <c r="F55" s="1">
         <v>1</v>
       </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
       <c r="I55">
         <f t="shared" si="0"/>
         <v>2.31</v>
@@ -1586,7 +1763,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B56">
         <v>49</v>
       </c>
@@ -1596,6 +1773,10 @@
       <c r="D56" s="1">
         <v>1</v>
       </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
       <c r="I56">
         <f t="shared" si="0"/>
         <v>0.28999999999999998</v>
@@ -1605,7 +1786,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57">
         <v>50</v>
       </c>
@@ -1634,7 +1815,7 @@
         <v>1.5750000000000002</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="J58">
         <f>SUM(J7:J57)</f>
         <v>105.42499999999995</v>
@@ -1646,6 +1827,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="81" fitToWidth="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>